--- a/generated.xlsx
+++ b/generated.xlsx
@@ -560,7 +560,7 @@
     <row r="1" ht="15.75" customHeight="1" s="10" thickTop="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
-          <t>Homie Inc.</t>
+          <t>Homeless Inc.</t>
         </is>
       </c>
       <c r="B1" s="7" t="n"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Gorbochev Nikita</t>
+          <t>Дубов Александр Лесович</t>
         </is>
       </c>
       <c r="F3" s="11" t="n"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>Slave</t>
+          <t>Директор</t>
         </is>
       </c>
       <c r="F4" s="11" t="n"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>slave@gmail.com</t>
+          <t>dubov@mail.ru</t>
         </is>
       </c>
       <c r="F6" s="11" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>Hogwards</t>
+          <t>Pushkina 88/4</t>
         </is>
       </c>
       <c r="F8" s="11" t="n"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>Solevoy</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="F9" s="11" t="n"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>www.MMM.com.scam</t>
+          <t>www.MMM.ru</t>
         </is>
       </c>
       <c r="F10" s="18" t="n"/>
